--- a/plots/reordering_var.xlsx
+++ b/plots/reordering_var.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DE72B2-9661-514F-A7BD-59F55D1EB286}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451704B0-A30F-6B4D-9B44-5AAAD673EB9C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{5463C0A4-7357-1E49-A484-01803FFFD018}"/>
   </bookViews>
@@ -16,11 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$1673</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$1673</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$1673</definedName>
     <definedName name="reordering_var_out" localSheetId="0">Sheet1!$A$2:$C$1673</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -34,8 +29,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00FAEB4A-B266-D54A-9EC5-4E4E942F6F51}" name="reordering_var_out" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tobiasba/repos/experimentscripts/out-dir/reordering_var_out.csv" thousands="'" tab="0" comma="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="reordering_var_out" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/tobiasba/repos/experimentscripts/out-dir/reordering_var_out.csv" thousands="'" tab="0" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -131,7 +126,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -144,7 +139,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>Reordering</a:t>
             </a:r>
           </a:p>
@@ -163,7 +158,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -20627,7 +20622,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -20659,12 +20654,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -21255,8 +21245,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21285,7 +21275,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="reordering_var_out" connectionId="1" xr16:uid="{FB301A6E-A869-9A45-95D8-798742916101}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="reordering_var_out" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21587,8 +21577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F3F3E2-2D0B-394C-AF92-896F5A40F651}">
   <dimension ref="A1:C1673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/plots/reordering_var.xlsx
+++ b/plots/reordering_var.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451704B0-A30F-6B4D-9B44-5AAAD673EB9C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD3E902-C3E3-724A-894C-CEA6876E386A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{5463C0A4-7357-1E49-A484-01803FFFD018}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16060" xr2:uid="{5463C0A4-7357-1E49-A484-01803FFFD018}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21577,7 +21577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F3F3E2-2D0B-394C-AF92-896F5A40F651}">
   <dimension ref="A1:C1673"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>

--- a/plots/reordering_var.xlsx
+++ b/plots/reordering_var.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD3E902-C3E3-724A-894C-CEA6876E386A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E455C411-69FE-3F49-A4D5-638A0D9BE70B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16060" xr2:uid="{5463C0A4-7357-1E49-A484-01803FFFD018}"/>
   </bookViews>
@@ -50,7 +50,7 @@
     <t>Reordering</t>
   </si>
   <si>
-    <t>Expected</t>
+    <t>Introduced</t>
   </si>
 </sst>
 </file>
@@ -10282,7 +10282,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Expected</c:v>
+                  <c:v>Introduced</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20392,7 +20392,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -20405,7 +20405,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>s</a:t>
                 </a:r>
               </a:p>
@@ -20424,7 +20424,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -20510,7 +20510,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -20523,7 +20523,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>%</a:t>
                 </a:r>
               </a:p>
@@ -20542,7 +20542,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -21577,8 +21577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F3F3E2-2D0B-394C-AF92-896F5A40F651}">
   <dimension ref="A1:C1673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
